--- a/XL_vis.xlsx
+++ b/XL_vis.xlsx
@@ -199,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,10 +234,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -320,11 +316,23 @@
   <dimension ref="A1:Q986"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="965" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -527,7 +535,7 @@
       <c r="M4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="N4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O4" s="8" t="n">
